--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3574.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3574.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.132543301622711</v>
+        <v>4.81135368347168</v>
       </c>
       <c r="B1">
-        <v>1.719363706942701</v>
+        <v>2.574819326400757</v>
       </c>
       <c r="C1">
-        <v>3.825663955264536</v>
+        <v>1.845252394676208</v>
       </c>
       <c r="D1">
-        <v>4.344843468021113</v>
+        <v>1.687134265899658</v>
       </c>
       <c r="E1">
-        <v>1.18991648515255</v>
+        <v>1.706208944320679</v>
       </c>
     </row>
   </sheetData>
